--- a/Forms/User Characterization (respostas).xlsx
+++ b/Forms/User Characterization (respostas).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="330">
   <si>
     <t>Indicação de data e hora</t>
   </si>
@@ -863,6 +863,144 @@
   </si>
   <si>
     <t>Android 5.0.2</t>
+  </si>
+  <si>
+    <t>Bernardo Henz</t>
+  </si>
+  <si>
+    <t>Kinect, Wii, HMD</t>
+  </si>
+  <si>
+    <t>Um pouco</t>
+  </si>
+  <si>
+    <t>Lenovo Vibe K5</t>
+  </si>
+  <si>
+    <t>Não preciso</t>
+  </si>
+  <si>
+    <t>Jonas Deyson Brito dos Santos</t>
+  </si>
+  <si>
+    <t>Moto G 1ª geração</t>
+  </si>
+  <si>
+    <t>10 Jun, 13:30</t>
+  </si>
+  <si>
+    <t>Alex Reimann Cunha Lima</t>
+  </si>
+  <si>
+    <t>Direito e Ciência Computação</t>
+  </si>
+  <si>
+    <t>Wiimote</t>
+  </si>
+  <si>
+    <t>Iphone 4, Samsung Duos e LG A275</t>
+  </si>
+  <si>
+    <t>iOS, Android e Sistema Próprio da LG</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Mathias Fassini Mantelli</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note I</t>
+  </si>
+  <si>
+    <t>Tatiane Sequerra Stivelman</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy J5</t>
+  </si>
+  <si>
+    <t>Fernanda Caroline Silveira Rodrigues</t>
+  </si>
+  <si>
+    <t>Sim. Kinect, Rift.</t>
+  </si>
+  <si>
+    <t>Miopia e astigmatismo.</t>
+  </si>
+  <si>
+    <t>Vertigem.</t>
+  </si>
+  <si>
+    <t>IPhone 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOs </t>
+  </si>
+  <si>
+    <t>Mariane Teixeira Giambastiani</t>
+  </si>
+  <si>
+    <t>wii mote</t>
+  </si>
+  <si>
+    <t>Estrabismo</t>
+  </si>
+  <si>
+    <t>Sansung S3 Duo</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Diego Pittol</t>
+  </si>
+  <si>
+    <t>Android 5.0.0</t>
+  </si>
+  <si>
+    <t>Maurício Calegari Xavier</t>
+  </si>
+  <si>
+    <t>Sim. Kinect.</t>
+  </si>
+  <si>
+    <t>Astigmatismo.</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Win</t>
+  </si>
+  <si>
+    <t>Emanuel Teribele Novakoski</t>
+  </si>
+  <si>
+    <t>Engenharia de Computacao</t>
+  </si>
+  <si>
+    <t>Oculus Rift</t>
+  </si>
+  <si>
+    <t>Mauricio Barbosa da Rocha</t>
+  </si>
+  <si>
+    <t>Engenharia de computacao</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>Guilherme Fonseca Ribeiro</t>
+  </si>
+  <si>
+    <t>Astigmatismo e miopia</t>
+  </si>
+  <si>
+    <t>iPhone 4s</t>
+  </si>
+  <si>
+    <t>Alguma versão do iOs</t>
   </si>
 </sst>
 </file>
@@ -5874,6 +6012,1146 @@
         <v>49</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>42531.559451747686</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="V53" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA53" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>42531.55948783565</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R54" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V54" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>42531.56238877315</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V55" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>42531.681609050924</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R56" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="V56" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>42531.6829569213</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R57" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V57" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA57" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB57" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE57" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>42531.6844531713</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R58" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="V58" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>42531.684989953705</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R59" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA59" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE59" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>42531.71714418981</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R60" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="V60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>42531.7479944213</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R61" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="V61" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>42531.74828921296</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R62" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="V62" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE62" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>42531.748840775464</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C63" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R63" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA63" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>42533.631650613424</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R64" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V64" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA64" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB64" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE64" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
